--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Lif-Il6st.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,25 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>sCs</t>
+  </si>
+  <si>
     <t>Lif</t>
   </si>
   <si>
     <t>Il6st</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M2</t>
-  </si>
-  <si>
-    <t>sCs</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>1.39124132227077</v>
+        <v>0.2108583333333333</v>
       </c>
       <c r="H2">
-        <v>1.39124132227077</v>
+        <v>0.632575</v>
       </c>
       <c r="I2">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278249</v>
       </c>
       <c r="J2">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278248</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N2">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P2">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q2">
-        <v>119.9718473529255</v>
+        <v>18.21973525232222</v>
       </c>
       <c r="R2">
-        <v>119.9718473529255</v>
+        <v>163.9776172709</v>
       </c>
       <c r="S2">
-        <v>0.2493154128887458</v>
+        <v>0.02065996459936923</v>
       </c>
       <c r="T2">
-        <v>0.2493154128887458</v>
+        <v>0.02065996459936922</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>1.39124132227077</v>
+        <v>0.2108583333333333</v>
       </c>
       <c r="H3">
-        <v>1.39124132227077</v>
+        <v>0.632575</v>
       </c>
       <c r="I3">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278249</v>
       </c>
       <c r="J3">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278248</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N3">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P3">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q3">
-        <v>172.8896701982438</v>
+        <v>26.35785845386667</v>
       </c>
       <c r="R3">
-        <v>172.8896701982438</v>
+        <v>237.2207260848</v>
       </c>
       <c r="S3">
-        <v>0.359284786062129</v>
+        <v>0.02988805353264745</v>
       </c>
       <c r="T3">
-        <v>0.359284786062129</v>
+        <v>0.02988805353264744</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>1.39124132227077</v>
+        <v>0.2108583333333333</v>
       </c>
       <c r="H4">
-        <v>1.39124132227077</v>
+        <v>0.632575</v>
       </c>
       <c r="I4">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278249</v>
       </c>
       <c r="J4">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278248</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N4">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P4">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q4">
-        <v>20.7031839766253</v>
+        <v>3.165595213072222</v>
       </c>
       <c r="R4">
-        <v>20.7031839766253</v>
+        <v>28.49035691765</v>
       </c>
       <c r="S4">
-        <v>0.04302361741634162</v>
+        <v>0.003589573840249354</v>
       </c>
       <c r="T4">
-        <v>0.04302361741634162</v>
+        <v>0.003589573840249353</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>25</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>1.39124132227077</v>
+        <v>0.2108583333333333</v>
       </c>
       <c r="H5">
-        <v>1.39124132227077</v>
+        <v>0.632575</v>
       </c>
       <c r="I5">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278249</v>
       </c>
       <c r="J5">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278248</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N5">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P5">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q5">
-        <v>23.48409945553376</v>
+        <v>3.568513648463889</v>
       </c>
       <c r="R5">
-        <v>23.48409945553376</v>
+        <v>32.116622836175</v>
       </c>
       <c r="S5">
-        <v>0.04880268230640025</v>
+        <v>0.004046456473083665</v>
       </c>
       <c r="T5">
-        <v>0.04880268230640025</v>
+        <v>0.004046456473083664</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>1.39124132227077</v>
+        <v>0.2108583333333333</v>
       </c>
       <c r="H6">
-        <v>1.39124132227077</v>
+        <v>0.632575</v>
       </c>
       <c r="I6">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278249</v>
       </c>
       <c r="J6">
-        <v>0.7344369170724321</v>
+        <v>0.06112302882278248</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.7635858067027</v>
+        <v>12.29188266666667</v>
       </c>
       <c r="N6">
-        <v>11.7635858067027</v>
+        <v>36.875648</v>
       </c>
       <c r="O6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326276</v>
       </c>
       <c r="P6">
-        <v>0.04630815473490328</v>
+        <v>0.04808302916326274</v>
       </c>
       <c r="Q6">
-        <v>16.36598667236273</v>
+        <v>2.591845892622222</v>
       </c>
       <c r="R6">
-        <v>16.36598667236273</v>
+        <v>23.3266130336</v>
       </c>
       <c r="S6">
-        <v>0.03401041839881552</v>
+        <v>0.002938980377432801</v>
       </c>
       <c r="T6">
-        <v>0.03401041839881552</v>
+        <v>0.002938980377432799</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.50305523326793</v>
+        <v>1.428952666666667</v>
       </c>
       <c r="H7">
-        <v>0.50305523326793</v>
+        <v>4.286858000000001</v>
       </c>
       <c r="I7">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="J7">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>86.23367163728911</v>
+        <v>86.40747066666665</v>
       </c>
       <c r="N7">
-        <v>86.23367163728911</v>
+        <v>259.222412</v>
       </c>
       <c r="O7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947018</v>
       </c>
       <c r="P7">
-        <v>0.3394647070337256</v>
+        <v>0.3380062309947017</v>
       </c>
       <c r="Q7">
-        <v>43.38029980104655</v>
+        <v>123.4721856290551</v>
       </c>
       <c r="R7">
-        <v>43.38029980104655</v>
+        <v>1111.249670661496</v>
       </c>
       <c r="S7">
-        <v>0.09014929414497978</v>
+        <v>0.1400092234478486</v>
       </c>
       <c r="T7">
-        <v>0.09014929414497978</v>
+        <v>0.1400092234478485</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.50305523326793</v>
+        <v>1.428952666666667</v>
       </c>
       <c r="H8">
-        <v>0.50305523326793</v>
+        <v>4.286858000000001</v>
       </c>
       <c r="I8">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="J8">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>124.270079842119</v>
+        <v>125.002688</v>
       </c>
       <c r="N8">
-        <v>124.270079842119</v>
+        <v>375.008064</v>
       </c>
       <c r="O8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969518</v>
       </c>
       <c r="P8">
-        <v>0.4891976120893926</v>
+        <v>0.4889818797969517</v>
       </c>
       <c r="Q8">
-        <v>62.51471400320146</v>
+        <v>178.6229243581013</v>
       </c>
       <c r="R8">
-        <v>62.51471400320146</v>
+        <v>1607.606319222912</v>
       </c>
       <c r="S8">
-        <v>0.1299128260272635</v>
+        <v>0.2025464828531921</v>
       </c>
       <c r="T8">
-        <v>0.1299128260272635</v>
+        <v>0.202546482853192</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.50305523326793</v>
+        <v>1.428952666666667</v>
       </c>
       <c r="H9">
-        <v>0.50305523326793</v>
+        <v>4.286858000000001</v>
       </c>
       <c r="I9">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="J9">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>14.881087590781</v>
+        <v>15.01290066666667</v>
       </c>
       <c r="N9">
-        <v>14.881087590781</v>
+        <v>45.038702</v>
       </c>
       <c r="O9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751719</v>
       </c>
       <c r="P9">
-        <v>0.05858041230803015</v>
+        <v>0.05872702824751717</v>
       </c>
       <c r="Q9">
-        <v>7.486008989260834</v>
+        <v>21.45272444203511</v>
       </c>
       <c r="R9">
-        <v>7.486008989260834</v>
+        <v>193.074519978316</v>
       </c>
       <c r="S9">
-        <v>0.01555679489168853</v>
+        <v>0.02432595871424522</v>
       </c>
       <c r="T9">
-        <v>0.01555679489168853</v>
+        <v>0.02432595871424521</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>25</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.50305523326793</v>
+        <v>1.428952666666667</v>
       </c>
       <c r="H10">
-        <v>0.50305523326793</v>
+        <v>4.286858000000001</v>
       </c>
       <c r="I10">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="J10">
-        <v>0.2655630829275679</v>
+        <v>0.4142208356213504</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.8799611394544</v>
+        <v>16.92374966666667</v>
       </c>
       <c r="N10">
-        <v>16.8799611394544</v>
+        <v>50.771249</v>
       </c>
       <c r="O10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756665</v>
       </c>
       <c r="P10">
-        <v>0.06644911383394851</v>
+        <v>0.06620183179756664</v>
       </c>
       <c r="Q10">
-        <v>8.491552788561828</v>
+        <v>24.18323721618244</v>
       </c>
       <c r="R10">
-        <v>8.491552788561828</v>
+        <v>217.649134945642</v>
       </c>
       <c r="S10">
-        <v>0.01764643152754827</v>
+        <v>0.02742217808685214</v>
       </c>
       <c r="T10">
-        <v>0.01764643152754827</v>
+        <v>0.02742217808685214</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.428952666666667</v>
+      </c>
+      <c r="H11">
+        <v>4.286858000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.4142208356213504</v>
+      </c>
+      <c r="J11">
+        <v>0.4142208356213504</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N11">
+        <v>36.875648</v>
+      </c>
+      <c r="O11">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P11">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q11">
+        <v>17.56451851488711</v>
+      </c>
+      <c r="R11">
+        <v>158.080666633984</v>
+      </c>
+      <c r="S11">
+        <v>0.01991699251921246</v>
+      </c>
+      <c r="T11">
+        <v>0.01991699251921245</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.5716873333333333</v>
+      </c>
+      <c r="H12">
+        <v>1.715062</v>
+      </c>
+      <c r="I12">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="J12">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N12">
+        <v>259.222412</v>
+      </c>
+      <c r="O12">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P12">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q12">
+        <v>49.39805648550488</v>
+      </c>
+      <c r="R12">
+        <v>444.582508369544</v>
+      </c>
+      <c r="S12">
+        <v>0.05601410141994767</v>
+      </c>
+      <c r="T12">
+        <v>0.05601410141994764</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.5716873333333333</v>
+      </c>
+      <c r="H13">
+        <v>1.715062</v>
+      </c>
+      <c r="I13">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="J13">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>125.002688</v>
+      </c>
+      <c r="N13">
+        <v>375.008064</v>
+      </c>
+      <c r="O13">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P13">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q13">
+        <v>71.46245336221867</v>
+      </c>
+      <c r="R13">
+        <v>643.162080259968</v>
+      </c>
+      <c r="S13">
+        <v>0.08103365587923866</v>
+      </c>
+      <c r="T13">
+        <v>0.08103365587923865</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.5716873333333333</v>
+      </c>
+      <c r="H14">
+        <v>1.715062</v>
+      </c>
+      <c r="I14">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="J14">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N14">
+        <v>45.038702</v>
+      </c>
+      <c r="O14">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P14">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q14">
+        <v>8.58268514772489</v>
+      </c>
+      <c r="R14">
+        <v>77.24416632952401</v>
+      </c>
+      <c r="S14">
+        <v>0.009732192529906713</v>
+      </c>
+      <c r="T14">
+        <v>0.009732192529906709</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.50305523326793</v>
-      </c>
-      <c r="H11">
-        <v>0.50305523326793</v>
-      </c>
-      <c r="I11">
-        <v>0.2655630829275679</v>
-      </c>
-      <c r="J11">
-        <v>0.2655630829275679</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="N11">
-        <v>11.7635858067027</v>
-      </c>
-      <c r="O11">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="P11">
-        <v>0.04630815473490328</v>
-      </c>
-      <c r="Q11">
-        <v>5.917733402058137</v>
-      </c>
-      <c r="R11">
-        <v>5.917733402058137</v>
-      </c>
-      <c r="S11">
-        <v>0.01229773633608776</v>
-      </c>
-      <c r="T11">
-        <v>0.01229773633608776</v>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.5716873333333333</v>
+      </c>
+      <c r="H15">
+        <v>1.715062</v>
+      </c>
+      <c r="I15">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="J15">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N15">
+        <v>50.771249</v>
+      </c>
+      <c r="O15">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P15">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q15">
+        <v>9.675093316937556</v>
+      </c>
+      <c r="R15">
+        <v>87.07583985243799</v>
+      </c>
+      <c r="S15">
+        <v>0.01097091053494023</v>
+      </c>
+      <c r="T15">
+        <v>0.01097091053494023</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.5716873333333333</v>
+      </c>
+      <c r="H16">
+        <v>1.715062</v>
+      </c>
+      <c r="I16">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="J16">
+        <v>0.1657191385351286</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N16">
+        <v>36.875648</v>
+      </c>
+      <c r="O16">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P16">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q16">
+        <v>7.027113623352888</v>
+      </c>
+      <c r="R16">
+        <v>63.244022610176</v>
+      </c>
+      <c r="S16">
+        <v>0.007968278171095371</v>
+      </c>
+      <c r="T16">
+        <v>0.007968278171095368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.138639</v>
+      </c>
+      <c r="H17">
+        <v>3.415917</v>
+      </c>
+      <c r="I17">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="J17">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N17">
+        <v>259.222412</v>
+      </c>
+      <c r="O17">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P17">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q17">
+        <v>98.38691599242267</v>
+      </c>
+      <c r="R17">
+        <v>885.482243931804</v>
+      </c>
+      <c r="S17">
+        <v>0.1115642007578288</v>
+      </c>
+      <c r="T17">
+        <v>0.1115642007578288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.138639</v>
+      </c>
+      <c r="H18">
+        <v>3.415917</v>
+      </c>
+      <c r="I18">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="J18">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>125.002688</v>
+      </c>
+      <c r="N18">
+        <v>375.008064</v>
+      </c>
+      <c r="O18">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P18">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q18">
+        <v>142.332935661632</v>
+      </c>
+      <c r="R18">
+        <v>1280.996420954688</v>
+      </c>
+      <c r="S18">
+        <v>0.1613960560551405</v>
+      </c>
+      <c r="T18">
+        <v>0.1613960560551404</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.138639</v>
+      </c>
+      <c r="H19">
+        <v>3.415917</v>
+      </c>
+      <c r="I19">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="J19">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N19">
+        <v>45.038702</v>
+      </c>
+      <c r="O19">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P19">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q19">
+        <v>17.09427420219267</v>
+      </c>
+      <c r="R19">
+        <v>153.848467819734</v>
+      </c>
+      <c r="S19">
+        <v>0.01938376683185876</v>
+      </c>
+      <c r="T19">
+        <v>0.01938376683185875</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.138639</v>
+      </c>
+      <c r="H20">
+        <v>3.415917</v>
+      </c>
+      <c r="I20">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="J20">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N20">
+        <v>50.771249</v>
+      </c>
+      <c r="O20">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P20">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q20">
+        <v>19.27004139670367</v>
+      </c>
+      <c r="R20">
+        <v>173.430372570333</v>
+      </c>
+      <c r="S20">
+        <v>0.02185094171626532</v>
+      </c>
+      <c r="T20">
+        <v>0.02185094171626531</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.138639</v>
+      </c>
+      <c r="H21">
+        <v>3.415917</v>
+      </c>
+      <c r="I21">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="J21">
+        <v>0.3300655151519309</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N21">
+        <v>36.875648</v>
+      </c>
+      <c r="O21">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P21">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q21">
+        <v>13.99601698769067</v>
+      </c>
+      <c r="R21">
+        <v>125.964152889216</v>
+      </c>
+      <c r="S21">
+        <v>0.01587054979083764</v>
+      </c>
+      <c r="T21">
+        <v>0.01587054979083763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.09959899999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.298797</v>
+      </c>
+      <c r="I22">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="J22">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>86.40747066666665</v>
+      </c>
+      <c r="N22">
+        <v>259.222412</v>
+      </c>
+      <c r="O22">
+        <v>0.3380062309947018</v>
+      </c>
+      <c r="P22">
+        <v>0.3380062309947017</v>
+      </c>
+      <c r="Q22">
+        <v>8.606097670929332</v>
+      </c>
+      <c r="R22">
+        <v>77.45487903836398</v>
+      </c>
+      <c r="S22">
+        <v>0.009758740769707511</v>
+      </c>
+      <c r="T22">
+        <v>0.009758740769707506</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.09959899999999999</v>
+      </c>
+      <c r="H23">
+        <v>0.298797</v>
+      </c>
+      <c r="I23">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="J23">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>125.002688</v>
+      </c>
+      <c r="N23">
+        <v>375.008064</v>
+      </c>
+      <c r="O23">
+        <v>0.4889818797969518</v>
+      </c>
+      <c r="P23">
+        <v>0.4889818797969517</v>
+      </c>
+      <c r="Q23">
+        <v>12.450142722112</v>
+      </c>
+      <c r="R23">
+        <v>112.051284499008</v>
+      </c>
+      <c r="S23">
+        <v>0.01411763147673313</v>
+      </c>
+      <c r="T23">
+        <v>0.01411763147673313</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.09959899999999999</v>
+      </c>
+      <c r="H24">
+        <v>0.298797</v>
+      </c>
+      <c r="I24">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="J24">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>15.01290066666667</v>
+      </c>
+      <c r="N24">
+        <v>45.038702</v>
+      </c>
+      <c r="O24">
+        <v>0.05872702824751719</v>
+      </c>
+      <c r="P24">
+        <v>0.05872702824751717</v>
+      </c>
+      <c r="Q24">
+        <v>1.495269893499333</v>
+      </c>
+      <c r="R24">
+        <v>13.457429041494</v>
+      </c>
+      <c r="S24">
+        <v>0.001695536331257142</v>
+      </c>
+      <c r="T24">
+        <v>0.001695536331257141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.09959899999999999</v>
+      </c>
+      <c r="H25">
+        <v>0.298797</v>
+      </c>
+      <c r="I25">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="J25">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>16.92374966666667</v>
+      </c>
+      <c r="N25">
+        <v>50.771249</v>
+      </c>
+      <c r="O25">
+        <v>0.06620183179756665</v>
+      </c>
+      <c r="P25">
+        <v>0.06620183179756664</v>
+      </c>
+      <c r="Q25">
+        <v>1.685588543050333</v>
+      </c>
+      <c r="R25">
+        <v>15.170296887453</v>
+      </c>
+      <c r="S25">
+        <v>0.001911344986425293</v>
+      </c>
+      <c r="T25">
+        <v>0.001911344986425293</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G26">
+        <v>0.09959899999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.298797</v>
+      </c>
+      <c r="I26">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="J26">
+        <v>0.02887148186880755</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>12.29188266666667</v>
+      </c>
+      <c r="N26">
+        <v>36.875648</v>
+      </c>
+      <c r="O26">
+        <v>0.04808302916326276</v>
+      </c>
+      <c r="P26">
+        <v>0.04808302916326274</v>
+      </c>
+      <c r="Q26">
+        <v>1.224259221717333</v>
+      </c>
+      <c r="R26">
+        <v>11.018332995456</v>
+      </c>
+      <c r="S26">
+        <v>0.001388228304684486</v>
+      </c>
+      <c r="T26">
+        <v>0.001388228304684485</v>
       </c>
     </row>
   </sheetData>
